--- a/data/trans_bre/P57GLOBAL_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 4,67</t>
+          <t>-8,32; 5,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 9,73</t>
+          <t>-4,69; 9,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 7,14</t>
+          <t>-4,46; 7,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 1,5</t>
+          <t>-10,26; 1,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 7,19</t>
+          <t>-11,92; 7,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 15,04</t>
+          <t>-6,43; 15,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 9,46</t>
+          <t>-5,56; 9,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,12; 2,73</t>
+          <t>-16,74; 3,63</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 10,26</t>
+          <t>-3,32; 10,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 12,88</t>
+          <t>-1,67; 12,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 9,35</t>
+          <t>-3,11; 9,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 7,07</t>
+          <t>-6,44; 6,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 17,11</t>
+          <t>-4,93; 17,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 20,23</t>
+          <t>-2,63; 18,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 12,59</t>
+          <t>-3,89; 12,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 11,9</t>
+          <t>-9,39; 10,92</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 3,69</t>
+          <t>-11,07; 4,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 11,23</t>
+          <t>-2,94; 10,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 6,75</t>
+          <t>-5,13; 6,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 53,44</t>
+          <t>0,08; 55,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 5,03</t>
+          <t>-14,6; 5,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 17,38</t>
+          <t>-4,31; 15,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 7,94</t>
+          <t>-5,71; 8,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 322,55</t>
+          <t>0,13; 396,82</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 5,94</t>
+          <t>-1,98; 5,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,49; 13,8</t>
+          <t>5,47; 13,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 6,84</t>
+          <t>0,27; 7,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 2,7</t>
+          <t>-6,32; 2,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 8,33</t>
+          <t>-2,69; 8,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,69; 20,24</t>
+          <t>7,6; 20,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 8,48</t>
+          <t>0,29; 8,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 4,36</t>
+          <t>-9,43; 3,45</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,38; 13,81</t>
+          <t>1,78; 13,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 9,31</t>
+          <t>-0,87; 9,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 7,64</t>
+          <t>0,1; 7,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,38; 1,96</t>
+          <t>-23,86; 2,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 20,47</t>
+          <t>2,32; 20,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 13,41</t>
+          <t>-1,21; 13,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,54; 9,45</t>
+          <t>0,12; 9,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,08; 2,89</t>
+          <t>-33,8; 3,48</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,96; 15,84</t>
+          <t>3,81; 15,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,43; 19,13</t>
+          <t>5,79; 18,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 11,41</t>
+          <t>0,35; 11,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,44; 30,04</t>
+          <t>7,1; 30,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,07; 28,45</t>
+          <t>5,88; 28,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,16; 34,59</t>
+          <t>8,72; 32,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 15,56</t>
+          <t>0,42; 15,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,71; 82,87</t>
+          <t>12,72; 88,01</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 4,29</t>
+          <t>-0,46; 4,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,98; 8,63</t>
+          <t>4,27; 8,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,79</t>
+          <t>1,27; 4,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 18,94</t>
+          <t>-2,1; 16,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 6,22</t>
+          <t>-0,64; 5,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,66; 12,74</t>
+          <t>6,13; 12,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,38; 5,9</t>
+          <t>1,54; 5,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 42,98</t>
+          <t>-3,28; 36,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57GLOBAL_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
